--- a/Assets/Excel/004_戰鬥關卡表.xlsx
+++ b/Assets/Excel/004_戰鬥關卡表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="StageDataInUnity" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="101">
   <si>
     <t>int</t>
   </si>
@@ -331,19 +331,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>n_NeutralID4</t>
+    <t>an_RoundGroup</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>n_NeutralPlace4</t>
+    <t>an_MonsterID</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>n_NeutralID5</t>
+    <t>an_MonsterPlace</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>n_NeutralPlace5</t>
+    <t>0,15,19,21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,7,8,9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,10,13,16,18</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -864,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="16.5"/>
@@ -889,7 +897,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>5</v>
@@ -1046,295 +1054,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.625" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:3">
       <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="M1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="P1" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="S1" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="T1" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="U1" s="11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="18">
         <v>1</v>
       </c>
       <c r="B2" s="18">
         <v>1001</v>
       </c>
-      <c r="C2" s="18">
-        <v>17</v>
-      </c>
-      <c r="D2" s="18">
-        <v>1001</v>
-      </c>
-      <c r="E2" s="18">
-        <v>21</v>
-      </c>
-      <c r="F2" s="18">
-        <v>1001</v>
-      </c>
-      <c r="G2" s="18">
-        <v>23</v>
-      </c>
-      <c r="H2" s="18">
-        <v>1002</v>
-      </c>
-      <c r="I2" s="18">
-        <v>30</v>
-      </c>
-      <c r="J2" s="18">
-        <v>1003</v>
-      </c>
-      <c r="K2" s="18">
-        <v>32</v>
-      </c>
-      <c r="L2" s="18">
-        <v>0</v>
-      </c>
-      <c r="M2" s="18">
-        <v>0</v>
-      </c>
-      <c r="N2" s="18">
-        <v>0</v>
-      </c>
-      <c r="O2" s="18">
-        <v>0</v>
-      </c>
-      <c r="P2" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="18">
-        <v>0</v>
-      </c>
-      <c r="R2" s="18">
-        <v>0</v>
-      </c>
-      <c r="S2" s="18">
-        <v>0</v>
-      </c>
-      <c r="T2" s="18">
-        <v>0</v>
-      </c>
-      <c r="U2" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+      <c r="C2" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="18">
         <v>2</v>
       </c>
       <c r="B3" s="18">
         <v>1002</v>
       </c>
-      <c r="C3" s="18">
-        <v>19</v>
-      </c>
-      <c r="D3" s="18">
-        <v>1001</v>
-      </c>
-      <c r="E3" s="18">
-        <v>21</v>
-      </c>
-      <c r="F3" s="18">
-        <v>1001</v>
-      </c>
-      <c r="G3" s="18">
-        <v>23</v>
-      </c>
-      <c r="H3" s="18">
-        <v>1002</v>
-      </c>
-      <c r="I3" s="18">
-        <v>30</v>
-      </c>
-      <c r="J3" s="18">
-        <v>1003</v>
-      </c>
-      <c r="K3" s="18">
-        <v>32</v>
-      </c>
-      <c r="L3" s="18">
-        <v>0</v>
-      </c>
-      <c r="M3" s="18">
-        <v>0</v>
-      </c>
-      <c r="N3" s="18">
-        <v>0</v>
-      </c>
-      <c r="O3" s="18">
-        <v>0</v>
-      </c>
-      <c r="P3" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="18">
-        <v>0</v>
-      </c>
-      <c r="R3" s="18">
-        <v>0</v>
-      </c>
-      <c r="S3" s="18">
-        <v>0</v>
-      </c>
-      <c r="T3" s="18">
-        <v>0</v>
-      </c>
-      <c r="U3" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="C3" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="18">
         <v>3</v>
       </c>
       <c r="B4" s="18">
         <v>1003</v>
       </c>
-      <c r="C4" s="18">
-        <v>21</v>
-      </c>
-      <c r="D4" s="18">
-        <v>1001</v>
-      </c>
-      <c r="E4" s="18">
-        <v>21</v>
-      </c>
-      <c r="F4" s="18">
-        <v>1001</v>
-      </c>
-      <c r="G4" s="18">
-        <v>23</v>
-      </c>
-      <c r="H4" s="18">
-        <v>1002</v>
-      </c>
-      <c r="I4" s="18">
-        <v>30</v>
-      </c>
-      <c r="J4" s="18">
-        <v>1003</v>
-      </c>
-      <c r="K4" s="18">
-        <v>32</v>
-      </c>
-      <c r="L4" s="18">
-        <v>0</v>
-      </c>
-      <c r="M4" s="18">
-        <v>0</v>
-      </c>
-      <c r="N4" s="18">
-        <v>0</v>
-      </c>
-      <c r="O4" s="18">
-        <v>0</v>
-      </c>
-      <c r="P4" s="18">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="18">
-        <v>0</v>
-      </c>
-      <c r="R4" s="18">
-        <v>0</v>
-      </c>
-      <c r="S4" s="18">
-        <v>0</v>
-      </c>
-      <c r="T4" s="18">
-        <v>0</v>
-      </c>
-      <c r="U4" s="18">
-        <v>0</v>
+      <c r="C4" s="18" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
